--- a/docs/testSummaryReport/TestSummaryReport.xlsx
+++ b/docs/testSummaryReport/TestSummaryReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_Project\docs\testSummaryReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testSummaryReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE2F28-A4F5-4464-85F8-C4A3304F7A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A10E113-D3B9-46D0-B4B5-BF9BB7A30D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="5010" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Project Name</t>
   </si>
   <si>
-    <t>Test Phase</t>
-  </si>
-  <si>
     <t>Test Start Date</t>
   </si>
   <si>
@@ -84,19 +81,27 @@
     <t>- Overall Status</t>
   </si>
   <si>
-    <t>- Comments/Notes</t>
-  </si>
-  <si>
-    <t>Test Lead/Manager</t>
-  </si>
-  <si>
     <t>Date of Report</t>
   </si>
   <si>
     <t>Windows 11 PRO 23H2 22631.2715</t>
   </si>
   <si>
-    <t>Mozilla Firefox 119.0.1 (64-bit)</t>
+    <t>Stranger Team PayAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozilla Firefox 119.0.1 (64-bit)
+Firefox 119.0(64-bit)	
+Google Chrome Version 119.0.6045.160 (Official Build) (64-bit)		
+Microsoft Edge Version 119.0.2151.72 (Official build) (64-bit)		
+Opera One(version: 105.0.4970.21)	
+Mobile	</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -441,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,37 +462,49 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2">
+        <v>45257</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>45268</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -495,26 +512,28 @@
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,7 +546,9 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -539,19 +560,25 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -563,31 +590,17 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2"/>
+      <c r="B19" s="2">
+        <v>45271</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
